--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.54662210472061</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H2">
-        <v>6.54662210472061</v>
+        <v>21.516279</v>
       </c>
       <c r="I2">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J2">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.2787577731909</v>
+        <v>26.450162</v>
       </c>
       <c r="N2">
-        <v>24.2787577731909</v>
+        <v>79.350486</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9821351879331711</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9821351879331711</v>
       </c>
       <c r="Q2">
-        <v>158.9438523131289</v>
+        <v>189.703021729066</v>
       </c>
       <c r="R2">
-        <v>158.9438523131289</v>
+        <v>1707.327195561594</v>
       </c>
       <c r="S2">
-        <v>0.06781118160145715</v>
+        <v>0.07225948739375651</v>
       </c>
       <c r="T2">
-        <v>0.06781118160145715</v>
+        <v>0.0722594873937565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>89.4392298282187</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H3">
-        <v>89.4392298282187</v>
+        <v>21.516279</v>
       </c>
       <c r="I3">
-        <v>0.9264288909852443</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J3">
-        <v>0.9264288909852443</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>24.2787577731909</v>
+        <v>0.321934</v>
       </c>
       <c r="N3">
-        <v>24.2787577731909</v>
+        <v>0.965802</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01195390446349922</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01195390446349922</v>
       </c>
       <c r="Q3">
-        <v>2171.473396420072</v>
+        <v>2.308940587862</v>
       </c>
       <c r="R3">
-        <v>2171.473396420072</v>
+        <v>20.780465290758</v>
       </c>
       <c r="S3">
-        <v>0.9264288909852443</v>
+        <v>0.0008794950221711915</v>
       </c>
       <c r="T3">
-        <v>0.9264288909852443</v>
+        <v>0.0008794950221711915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,427 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7.172092999999999</v>
+      </c>
+      <c r="H4">
+        <v>21.516279</v>
+      </c>
+      <c r="I4">
+        <v>0.07357387076805701</v>
+      </c>
+      <c r="J4">
+        <v>0.07357387076805699</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.1591883333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.477565</v>
+      </c>
+      <c r="O4">
+        <v>0.005910907603329674</v>
+      </c>
+      <c r="P4">
+        <v>0.005910907603329674</v>
+      </c>
+      <c r="Q4">
+        <v>1.141713531181667</v>
+      </c>
+      <c r="R4">
+        <v>10.275421780635</v>
+      </c>
+      <c r="S4">
+        <v>0.000434888352129303</v>
+      </c>
+      <c r="T4">
+        <v>0.000434888352129303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.556074488527655</v>
-      </c>
-      <c r="H4">
-        <v>0.556074488527655</v>
-      </c>
-      <c r="I4">
-        <v>0.005759927413298506</v>
-      </c>
-      <c r="J4">
-        <v>0.005759927413298506</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>24.2787577731909</v>
-      </c>
-      <c r="N4">
-        <v>24.2787577731909</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>13.50079781081396</v>
-      </c>
-      <c r="R4">
-        <v>13.50079781081396</v>
-      </c>
-      <c r="S4">
-        <v>0.005759927413298506</v>
-      </c>
-      <c r="T4">
-        <v>0.005759927413298506</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>89.72947699999999</v>
+      </c>
+      <c r="H5">
+        <v>269.188431</v>
+      </c>
+      <c r="I5">
+        <v>0.9204767624852804</v>
+      </c>
+      <c r="J5">
+        <v>0.9204767624852804</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>26.450162</v>
+      </c>
+      <c r="N5">
+        <v>79.350486</v>
+      </c>
+      <c r="O5">
+        <v>0.9821351879331711</v>
+      </c>
+      <c r="P5">
+        <v>0.9821351879331711</v>
+      </c>
+      <c r="Q5">
+        <v>2373.359202825274</v>
+      </c>
+      <c r="R5">
+        <v>21360.23282542747</v>
+      </c>
+      <c r="S5">
+        <v>0.9040326181115979</v>
+      </c>
+      <c r="T5">
+        <v>0.9040326181115979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>89.72947699999999</v>
+      </c>
+      <c r="H6">
+        <v>269.188431</v>
+      </c>
+      <c r="I6">
+        <v>0.9204767624852804</v>
+      </c>
+      <c r="J6">
+        <v>0.9204767624852804</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.321934</v>
+      </c>
+      <c r="N6">
+        <v>0.965802</v>
+      </c>
+      <c r="O6">
+        <v>0.01195390446349922</v>
+      </c>
+      <c r="P6">
+        <v>0.01195390446349922</v>
+      </c>
+      <c r="Q6">
+        <v>28.88696944851799</v>
+      </c>
+      <c r="R6">
+        <v>259.982725036662</v>
+      </c>
+      <c r="S6">
+        <v>0.01100329127962011</v>
+      </c>
+      <c r="T6">
+        <v>0.01100329127962011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>89.72947699999999</v>
+      </c>
+      <c r="H7">
+        <v>269.188431</v>
+      </c>
+      <c r="I7">
+        <v>0.9204767624852804</v>
+      </c>
+      <c r="J7">
+        <v>0.9204767624852804</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1591883333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.477565</v>
+      </c>
+      <c r="O7">
+        <v>0.005910907603329674</v>
+      </c>
+      <c r="P7">
+        <v>0.005910907603329674</v>
+      </c>
+      <c r="Q7">
+        <v>14.28388589450167</v>
+      </c>
+      <c r="R7">
+        <v>128.554973050515</v>
+      </c>
+      <c r="S7">
+        <v>0.005440853094062527</v>
+      </c>
+      <c r="T7">
+        <v>0.005440853094062527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5799533333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.73986</v>
+      </c>
+      <c r="I8">
+        <v>0.005949366746662454</v>
+      </c>
+      <c r="J8">
+        <v>0.005949366746662453</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>26.450162</v>
+      </c>
+      <c r="N8">
+        <v>79.350486</v>
+      </c>
+      <c r="O8">
+        <v>0.9821351879331711</v>
+      </c>
+      <c r="P8">
+        <v>0.9821351879331711</v>
+      </c>
+      <c r="Q8">
+        <v>15.33985961910667</v>
+      </c>
+      <c r="R8">
+        <v>138.05873657196</v>
+      </c>
+      <c r="S8">
+        <v>0.005843082427816689</v>
+      </c>
+      <c r="T8">
+        <v>0.005843082427816688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5799533333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.73986</v>
+      </c>
+      <c r="I9">
+        <v>0.005949366746662454</v>
+      </c>
+      <c r="J9">
+        <v>0.005949366746662453</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.321934</v>
+      </c>
+      <c r="N9">
+        <v>0.965802</v>
+      </c>
+      <c r="O9">
+        <v>0.01195390446349922</v>
+      </c>
+      <c r="P9">
+        <v>0.01195390446349922</v>
+      </c>
+      <c r="Q9">
+        <v>0.1867066964133334</v>
+      </c>
+      <c r="R9">
+        <v>1.68036026772</v>
+      </c>
+      <c r="S9">
+        <v>7.111816170792215E-05</v>
+      </c>
+      <c r="T9">
+        <v>7.111816170792215E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5799533333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.73986</v>
+      </c>
+      <c r="I10">
+        <v>0.005949366746662454</v>
+      </c>
+      <c r="J10">
+        <v>0.005949366746662453</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1591883333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.477565</v>
+      </c>
+      <c r="O10">
+        <v>0.005910907603329674</v>
+      </c>
+      <c r="P10">
+        <v>0.005910907603329674</v>
+      </c>
+      <c r="Q10">
+        <v>0.09232180454444447</v>
+      </c>
+      <c r="R10">
+        <v>0.8308962409000001</v>
+      </c>
+      <c r="S10">
+        <v>3.516615713784383E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.516615713784382E-05</v>
       </c>
     </row>
   </sheetData>
